--- a/WangYiGongYi/doc/项目计划.xlsx
+++ b/WangYiGongYi/doc/项目计划.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="APP端" sheetId="1" r:id="rId1"/>
     <sheet name="后台" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="71">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -288,13 +288,16 @@
   <si>
     <t>前台用户权限管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在处理</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -414,15 +417,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -441,6 +435,15 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -502,7 +505,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -534,10 +537,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -569,7 +571,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -745,25 +746,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="3" width="23.21875" customWidth="1"/>
-    <col min="4" max="4" width="43.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.44140625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="28.88671875" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" customWidth="1"/>
-    <col min="8" max="8" width="17.88671875" customWidth="1"/>
-    <col min="9" max="9" width="19.44140625" customWidth="1"/>
+    <col min="2" max="3" width="23.25" customWidth="1"/>
+    <col min="4" max="4" width="43.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5" style="6" customWidth="1"/>
+    <col min="6" max="6" width="28.875" customWidth="1"/>
+    <col min="7" max="7" width="10.875" customWidth="1"/>
+    <col min="8" max="8" width="17.875" customWidth="1"/>
+    <col min="9" max="9" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -776,7 +777,7 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -792,68 +793,68 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="10">
+        <v>70</v>
+      </c>
+      <c r="H2" s="7">
         <v>42231</v>
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="4"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12"/>
       <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="10">
+        <v>70</v>
+      </c>
+      <c r="H3" s="7">
         <v>42231</v>
       </c>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -862,21 +863,21 @@
       <c r="G4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="7">
         <v>42231</v>
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
       <c r="D5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -885,21 +886,21 @@
       <c r="G5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="7">
         <v>42231</v>
       </c>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
       <c r="D6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -908,23 +909,23 @@
       <c r="G6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="7">
         <v>42231</v>
       </c>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -933,21 +934,21 @@
       <c r="G7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="7">
         <v>42231</v>
       </c>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="4"/>
+      <c r="C8" s="12"/>
       <c r="D8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -956,23 +957,23 @@
       <c r="G8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="7">
         <v>42231</v>
       </c>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="10" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="2" t="s">
@@ -981,21 +982,21 @@
       <c r="G9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="7">
         <v>42231</v>
       </c>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="5"/>
+      <c r="C10" s="11"/>
       <c r="D10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -1004,21 +1005,21 @@
       <c r="G10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="7">
         <v>42231</v>
       </c>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="5"/>
+      <c r="C11" s="11"/>
       <c r="D11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -1027,21 +1028,21 @@
       <c r="G11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="7">
         <v>42231</v>
       </c>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="5"/>
+      <c r="C12" s="11"/>
       <c r="D12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -1050,21 +1051,21 @@
       <c r="G12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="7">
         <v>42231</v>
       </c>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="5"/>
+      <c r="C13" s="11"/>
       <c r="D13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -1073,21 +1074,21 @@
       <c r="G13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="7">
         <v>42231</v>
       </c>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="5"/>
+      <c r="C14" s="11"/>
       <c r="D14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -1096,21 +1097,21 @@
       <c r="G14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="7">
         <v>42231</v>
       </c>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2"/>
-      <c r="C15" s="5"/>
+      <c r="C15" s="11"/>
       <c r="D15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F15" s="2" t="s">
@@ -1119,21 +1120,21 @@
       <c r="G15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="7">
         <v>42231</v>
       </c>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2"/>
-      <c r="C16" s="5"/>
+      <c r="C16" s="11"/>
       <c r="D16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F16" s="2" t="s">
@@ -1142,21 +1143,21 @@
       <c r="G16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="7">
         <v>42231</v>
       </c>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2"/>
-      <c r="C17" s="5"/>
+      <c r="C17" s="11"/>
       <c r="D17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F17" s="2" t="s">
@@ -1165,21 +1166,21 @@
       <c r="G17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="7">
         <v>42231</v>
       </c>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="2"/>
-      <c r="C18" s="5"/>
+      <c r="C18" s="11"/>
       <c r="D18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F18" s="2" t="s">
@@ -1188,21 +1189,21 @@
       <c r="G18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="7">
         <v>42231</v>
       </c>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="4"/>
+      <c r="C19" s="12"/>
       <c r="D19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F19" s="2" t="s">
@@ -1211,23 +1212,23 @@
       <c r="G19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H19" s="7">
         <v>42231</v>
       </c>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F20" s="2" t="s">
@@ -1236,21 +1237,21 @@
       <c r="G20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H20" s="7">
         <v>42231</v>
       </c>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="2"/>
-      <c r="C21" s="5"/>
+      <c r="C21" s="11"/>
       <c r="D21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F21" s="2" t="s">
@@ -1259,21 +1260,21 @@
       <c r="G21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21" s="7">
         <v>42231</v>
       </c>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="5"/>
+      <c r="C22" s="11"/>
       <c r="D22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F22" s="2" t="s">
@@ -1282,21 +1283,21 @@
       <c r="G22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="7">
         <v>42231</v>
       </c>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="5"/>
+      <c r="C23" s="11"/>
       <c r="D23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F23" s="2" t="s">
@@ -1305,21 +1306,21 @@
       <c r="G23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H23" s="7">
         <v>42231</v>
       </c>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="4"/>
+      <c r="C24" s="12"/>
       <c r="D24" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F24" s="2" t="s">
@@ -1328,58 +1329,58 @@
       <c r="G24" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H24" s="7">
         <v>42231</v>
       </c>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="2"/>
-      <c r="C25" s="6"/>
+      <c r="C25" s="3"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="7"/>
+      <c r="E25" s="4"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="6"/>
+      <c r="C26" s="3"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="7"/>
+      <c r="E26" s="4"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H27" s="11" t="s">
+    <row r="27" spans="1:9">
+      <c r="H27" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="I27" s="11" t="s">
+      <c r="I27" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H28" s="11" t="s">
+    <row r="28" spans="1:9">
+      <c r="H28" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="I28" s="12">
+      <c r="I28" s="9">
         <v>42241</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H29" s="11" t="s">
+    <row r="29" spans="1:9">
+      <c r="H29" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="I29" s="12">
+      <c r="I29" s="9">
         <v>42241</v>
       </c>
     </row>
@@ -1410,25 +1411,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="3" width="23.21875" customWidth="1"/>
-    <col min="4" max="4" width="43.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.44140625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="28.88671875" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" customWidth="1"/>
-    <col min="8" max="8" width="17.88671875" customWidth="1"/>
-    <col min="9" max="9" width="19.44140625" customWidth="1"/>
+    <col min="2" max="3" width="23.25" customWidth="1"/>
+    <col min="4" max="4" width="43.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5" style="6" customWidth="1"/>
+    <col min="6" max="6" width="28.875" customWidth="1"/>
+    <col min="7" max="7" width="10.875" customWidth="1"/>
+    <col min="8" max="8" width="17.875" customWidth="1"/>
+    <col min="9" max="9" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1441,7 +1442,7 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1457,20 +1458,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -1479,21 +1480,21 @@
       <c r="G2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="7">
         <v>42231</v>
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="4"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12"/>
       <c r="D3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -1502,23 +1503,23 @@
       <c r="G3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="7">
         <v>42231</v>
       </c>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -1527,21 +1528,21 @@
       <c r="G4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="7">
         <v>42231</v>
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
       <c r="D5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -1550,21 +1551,21 @@
       <c r="G5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="7">
         <v>42231</v>
       </c>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
       <c r="D6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -1573,23 +1574,23 @@
       <c r="G6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="7">
         <v>42231</v>
       </c>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -1598,21 +1599,21 @@
       <c r="G7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="7">
         <v>42231</v>
       </c>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="4"/>
+      <c r="C8" s="12"/>
       <c r="D8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -1621,23 +1622,23 @@
       <c r="G8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="7">
         <v>42231</v>
       </c>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="10" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="2" t="s">
@@ -1646,21 +1647,21 @@
       <c r="G9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="7">
         <v>42231</v>
       </c>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="5"/>
+      <c r="C10" s="11"/>
       <c r="D10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -1669,21 +1670,21 @@
       <c r="G10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="7">
         <v>42231</v>
       </c>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="5"/>
+      <c r="C11" s="11"/>
       <c r="D11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -1692,21 +1693,21 @@
       <c r="G11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="7">
         <v>42231</v>
       </c>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="5"/>
+      <c r="C12" s="11"/>
       <c r="D12" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -1715,21 +1716,21 @@
       <c r="G12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="7">
         <v>42231</v>
       </c>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="5"/>
+      <c r="C13" s="11"/>
       <c r="D13" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -1738,21 +1739,21 @@
       <c r="G13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="7">
         <v>42231</v>
       </c>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="5"/>
+      <c r="C14" s="11"/>
       <c r="D14" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -1761,21 +1762,21 @@
       <c r="G14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="7">
         <v>42231</v>
       </c>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2"/>
-      <c r="C15" s="5"/>
+      <c r="C15" s="11"/>
       <c r="D15" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F15" s="2" t="s">
@@ -1784,21 +1785,21 @@
       <c r="G15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="7">
         <v>42231</v>
       </c>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2"/>
-      <c r="C16" s="5"/>
+      <c r="C16" s="11"/>
       <c r="D16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F16" s="2" t="s">
@@ -1807,21 +1808,21 @@
       <c r="G16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="7">
         <v>42231</v>
       </c>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2"/>
-      <c r="C17" s="5"/>
+      <c r="C17" s="11"/>
       <c r="D17" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F17" s="2" t="s">
@@ -1830,21 +1831,21 @@
       <c r="G17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="7">
         <v>42231</v>
       </c>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="2"/>
-      <c r="C18" s="5"/>
+      <c r="C18" s="11"/>
       <c r="D18" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F18" s="2" t="s">
@@ -1853,21 +1854,21 @@
       <c r="G18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="7">
         <v>42231</v>
       </c>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="4"/>
+      <c r="C19" s="12"/>
       <c r="D19" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F19" s="2" t="s">
@@ -1876,23 +1877,23 @@
       <c r="G19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H19" s="7">
         <v>42231</v>
       </c>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="10" t="s">
         <v>67</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F20" s="2" t="s">
@@ -1901,21 +1902,21 @@
       <c r="G20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H20" s="7">
         <v>42231</v>
       </c>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="2"/>
-      <c r="C21" s="5"/>
+      <c r="C21" s="11"/>
       <c r="D21" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F21" s="2" t="s">
@@ -1924,21 +1925,21 @@
       <c r="G21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21" s="7">
         <v>42231</v>
       </c>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="5"/>
+      <c r="C22" s="11"/>
       <c r="D22" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F22" s="2" t="s">
@@ -1947,95 +1948,95 @@
       <c r="G22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="7">
         <v>42231</v>
       </c>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="5"/>
+      <c r="C23" s="11"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="7"/>
+      <c r="E23" s="4"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="10"/>
+      <c r="H23" s="7"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="5"/>
+      <c r="C24" s="11"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="7"/>
+      <c r="E24" s="4"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="10"/>
+      <c r="H24" s="7"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="2"/>
-      <c r="C25" s="5"/>
+      <c r="C25" s="11"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="7"/>
+      <c r="E25" s="4"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="4"/>
+      <c r="C26" s="12"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="7"/>
+      <c r="E26" s="4"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H27" s="11" t="s">
+    <row r="27" spans="1:9">
+      <c r="H27" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="I27" s="11" t="s">
+      <c r="I27" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H28" s="11" t="s">
+    <row r="28" spans="1:9">
+      <c r="H28" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="I28" s="12">
+      <c r="I28" s="9">
         <v>42241</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H29" s="11" t="s">
+    <row r="29" spans="1:9">
+      <c r="H29" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="I29" s="12">
+      <c r="I29" s="9">
         <v>42241</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C20:C26"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C9:C19"/>
-    <mergeCell ref="C20:C26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">

--- a/WangYiGongYi/doc/项目计划.xlsx
+++ b/WangYiGongYi/doc/项目计划.xlsx
@@ -290,7 +290,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>正在处理</t>
+    <t>已解决</t>
   </si>
 </sst>
 </file>
@@ -750,7 +750,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/WangYiGongYi/doc/项目计划.xlsx
+++ b/WangYiGongYi/doc/项目计划.xlsx
@@ -750,7 +750,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -861,7 +861,7 @@
         <v>34</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="H4" s="7">
         <v>42231</v>
@@ -884,7 +884,7 @@
         <v>34</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="H5" s="7">
         <v>42231</v>
@@ -907,7 +907,7 @@
         <v>34</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="H6" s="7">
         <v>42231</v>
@@ -932,7 +932,7 @@
         <v>34</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="H7" s="7">
         <v>42231</v>
@@ -955,7 +955,7 @@
         <v>34</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="H8" s="7">
         <v>42231</v>
@@ -980,7 +980,7 @@
         <v>34</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="H9" s="7">
         <v>42231</v>

--- a/WangYiGongYi/doc/项目计划.xlsx
+++ b/WangYiGongYi/doc/项目计划.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="72">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -291,6 +291,9 @@
   </si>
   <si>
     <t>已解决</t>
+  </si>
+  <si>
+    <t>正在处理</t>
   </si>
 </sst>
 </file>
@@ -750,7 +753,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1003,7 +1006,7 @@
         <v>34</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="H10" s="7">
         <v>42231</v>
@@ -1026,7 +1029,7 @@
         <v>34</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="H11" s="7">
         <v>42231</v>
@@ -1049,7 +1052,7 @@
         <v>34</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="H12" s="7">
         <v>42231</v>
@@ -1072,7 +1075,7 @@
         <v>34</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7">
         <v>42231</v>
@@ -1095,7 +1098,7 @@
         <v>34</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="H14" s="7">
         <v>42231</v>
@@ -1118,7 +1121,7 @@
         <v>34</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="H15" s="7">
         <v>42231</v>
@@ -1141,7 +1144,7 @@
         <v>34</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="H16" s="7">
         <v>42231</v>
@@ -1164,7 +1167,7 @@
         <v>34</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="H17" s="7">
         <v>42231</v>
@@ -1187,7 +1190,7 @@
         <v>34</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="H18" s="7">
         <v>42231</v>
@@ -1210,7 +1213,7 @@
         <v>34</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="H19" s="7">
         <v>42231</v>
